--- a/data/trans_orig/P42A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD280A48-E77F-49B1-9925-43C185CE56A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90C4FD88-2234-4C7A-A761-7F2230DE4AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B44C4B36-6BA5-4CA3-9C8B-90194BD77AA9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{650BCD11-89CA-4EEF-8F0F-5F64865AEB52}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="422">
   <si>
     <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2007 (Tasa respuesta: 16,31%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>25,93%</t>
   </si>
   <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
   </si>
   <si>
     <t>Hace 3 o más años</t>
@@ -92,1222 +92,1219 @@
     <t>16,53%</t>
   </si>
   <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>Entre 1 y 3 años</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>Entre 6 meses y 1 años</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>Hace menos de 6 meses</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
     <t>9,93%</t>
   </si>
   <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>Entre 1 y 3 años</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2015 (Tasa respuesta: 43,8%)</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
   </si>
   <si>
     <t>15,97%</t>
   </si>
   <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>Entre 6 meses y 1 años</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>Hace menos de 6 meses</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
   </si>
   <si>
     <t>26,95%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
   </si>
   <si>
     <t>25,55%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2015 (Tasa respuesta: 43,8%)</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
+    <t>29,02%</t>
   </si>
   <si>
     <t>18,9%</t>
   </si>
   <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345C5759-2800-4FC2-878D-98612411C837}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E386463-8D0D-46DE-8EA3-C0FFA877C45F}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2552,7 +2549,7 @@
         <v>56</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -2567,7 +2564,7 @@
         <v>56</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2592,13 @@
         <v>57832</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -2610,13 +2607,13 @@
         <v>57832</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,13 +2641,13 @@
         <v>44826</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -2659,13 +2656,13 @@
         <v>44826</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,7 +2716,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2744,13 +2741,13 @@
         <v>45200</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -2759,13 +2756,13 @@
         <v>45200</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2790,13 @@
         <v>36863</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M23" s="7">
         <v>36</v>
@@ -2808,13 +2805,13 @@
         <v>36863</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2839,13 @@
         <v>45219</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -2857,13 +2854,13 @@
         <v>45219</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2888,13 @@
         <v>39197</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -2906,13 +2903,13 @@
         <v>39197</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,13 +2937,13 @@
         <v>40802</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M26" s="7">
         <v>39</v>
@@ -2955,13 +2952,13 @@
         <v>40802</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,7 +3012,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3040,13 +3037,13 @@
         <v>38275</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M28" s="7">
         <v>38</v>
@@ -3055,13 +3052,13 @@
         <v>38275</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3086,13 @@
         <v>28148</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -3104,13 +3101,13 @@
         <v>28148</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,7 +3239,7 @@
         <v>93</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="M32" s="7">
         <v>19</v>
@@ -3257,7 +3254,7 @@
         <v>93</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,7 +3308,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3336,13 +3333,13 @@
         <v>37331</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M34" s="7">
         <v>37</v>
@@ -3351,13 +3348,13 @@
         <v>37331</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3382,13 @@
         <v>31005</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M35" s="7">
         <v>31</v>
@@ -3400,13 +3397,13 @@
         <v>31005</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3431,13 @@
         <v>37388</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M36" s="7">
         <v>39</v>
@@ -3449,13 +3446,13 @@
         <v>37388</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3480,13 @@
         <v>31078</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M37" s="7">
         <v>31</v>
@@ -3498,13 +3495,13 @@
         <v>31078</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,13 +3529,13 @@
         <v>24338</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M38" s="7">
         <v>25</v>
@@ -3547,13 +3544,13 @@
         <v>24338</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3629,13 @@
         <v>243533</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M40" s="7">
         <v>235</v>
@@ -3647,13 +3644,13 @@
         <v>243533</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3678,13 @@
         <v>204651</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M41" s="7">
         <v>198</v>
@@ -3696,13 +3693,13 @@
         <v>204651</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,10 +3727,10 @@
         <v>252904</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>12</v>
@@ -3745,10 +3742,10 @@
         <v>252904</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>12</v>
@@ -3779,13 +3776,13 @@
         <v>213973</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M43" s="7">
         <v>209</v>
@@ -3794,13 +3791,13 @@
         <v>213973</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3825,13 @@
         <v>174055</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M44" s="7">
         <v>172</v>
@@ -3843,13 +3840,13 @@
         <v>174055</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,7 +3900,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3925,7 +3922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DB11D0-D928-4C88-8D63-0381A00C4141}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC38F6A-C98E-483E-BADC-7C2A743F75F3}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3942,7 +3939,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4062,13 +4059,13 @@
         <v>17697</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4077,13 +4074,13 @@
         <v>17697</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4108,13 @@
         <v>13446</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -4126,13 +4123,13 @@
         <v>13446</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4157,13 @@
         <v>74526</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M6" s="7">
         <v>71</v>
@@ -4175,13 +4172,13 @@
         <v>74526</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4206,13 @@
         <v>71907</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M7" s="7">
         <v>69</v>
@@ -4224,13 +4221,13 @@
         <v>71907</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4255,13 @@
         <v>72777</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>71</v>
@@ -4273,13 +4270,13 @@
         <v>72777</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4355,13 @@
         <v>62995</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -4373,13 +4370,13 @@
         <v>62995</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4404,13 @@
         <v>35138</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -4422,13 +4419,13 @@
         <v>35138</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4453,13 @@
         <v>179282</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M12" s="7">
         <v>170</v>
@@ -4471,13 +4468,13 @@
         <v>179282</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4502,13 @@
         <v>135092</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M13" s="7">
         <v>125</v>
@@ -4520,13 +4517,13 @@
         <v>135092</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4551,13 @@
         <v>143777</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -4569,13 +4566,13 @@
         <v>143777</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4651,13 @@
         <v>76147</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -4669,13 +4666,13 @@
         <v>76147</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4700,13 @@
         <v>88960</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -4718,13 +4715,13 @@
         <v>88960</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4749,13 @@
         <v>229394</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M18" s="7">
         <v>218</v>
@@ -4767,13 +4764,13 @@
         <v>229394</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4798,13 @@
         <v>168261</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M19" s="7">
         <v>155</v>
@@ -4816,13 +4813,13 @@
         <v>168261</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4847,13 @@
         <v>133244</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
@@ -4865,13 +4862,13 @@
         <v>133244</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,7 +4922,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4950,13 +4947,13 @@
         <v>45480</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -4965,13 +4962,13 @@
         <v>45480</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +4996,13 @@
         <v>102902</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M23" s="7">
         <v>90</v>
@@ -5014,13 +5011,13 @@
         <v>102902</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5045,13 @@
         <v>208561</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M24" s="7">
         <v>178</v>
@@ -5063,13 +5060,13 @@
         <v>208561</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5094,13 @@
         <v>152530</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>134</v>
@@ -5112,13 +5109,13 @@
         <v>152530</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5143,13 @@
         <v>74520</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>67</v>
@@ -5161,13 +5158,13 @@
         <v>74520</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,7 +5218,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5246,13 +5243,13 @@
         <v>27202</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -5261,13 +5258,13 @@
         <v>27202</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5292,13 @@
         <v>128707</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M29" s="7">
         <v>118</v>
@@ -5310,13 +5307,13 @@
         <v>128707</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5341,13 @@
         <v>134487</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M30" s="7">
         <v>121</v>
@@ -5359,13 +5356,13 @@
         <v>134487</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5390,13 @@
         <v>85101</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M31" s="7">
         <v>77</v>
@@ -5408,13 +5405,13 @@
         <v>85101</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5439,13 @@
         <v>44846</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M32" s="7">
         <v>39</v>
@@ -5457,13 +5454,13 @@
         <v>44846</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,7 +5514,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -5646,7 +5643,7 @@
         <v>203</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M36" s="7">
         <v>84</v>
@@ -5661,7 +5658,7 @@
         <v>203</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,7 +6106,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6131,7 +6128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0B1597-98F0-4343-856B-6EDE71974705}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F393E1-FD1C-4639-ABD5-51E6FCE8DCEC}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6418,10 +6415,10 @@
         <v>235</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>58</v>
+        <v>236</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -6433,10 +6430,10 @@
         <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>58</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6464,13 +6461,13 @@
         <v>57135</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -6479,13 +6476,13 @@
         <v>57135</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,13 +6561,13 @@
         <v>31822</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -6579,13 +6576,13 @@
         <v>31822</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,13 +6610,13 @@
         <v>48189</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -6628,13 +6625,13 @@
         <v>48189</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,7 +7059,7 @@
         <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>153</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -7077,7 +7074,7 @@
         <v>268</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>269</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,7 +7128,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7156,13 +7153,13 @@
         <v>33859</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -7171,13 +7168,13 @@
         <v>33859</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7208,10 +7205,10 @@
         <v>214</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>273</v>
+        <v>118</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M23" s="7">
         <v>117</v>
@@ -7223,10 +7220,10 @@
         <v>214</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>273</v>
+        <v>118</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,13 +7251,13 @@
         <v>262649</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M24" s="7">
         <v>243</v>
@@ -7269,13 +7266,13 @@
         <v>262649</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,13 +7300,13 @@
         <v>123328</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M25" s="7">
         <v>113</v>
@@ -7318,13 +7315,13 @@
         <v>123328</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,13 +7349,13 @@
         <v>67561</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M26" s="7">
         <v>63</v>
@@ -7367,13 +7364,13 @@
         <v>67561</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,7 +7424,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7452,13 +7449,13 @@
         <v>24587</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M28" s="7">
         <v>21</v>
@@ -7467,13 +7464,13 @@
         <v>24587</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7498,13 @@
         <v>143026</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M29" s="7">
         <v>126</v>
@@ -7516,13 +7513,13 @@
         <v>143026</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7550,13 +7547,13 @@
         <v>178367</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M30" s="7">
         <v>154</v>
@@ -7565,13 +7562,13 @@
         <v>178367</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7599,13 +7596,13 @@
         <v>73685</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>21</v>
+        <v>268</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M31" s="7">
         <v>64</v>
@@ -7614,13 +7611,13 @@
         <v>73685</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>21</v>
+        <v>268</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7648,13 +7645,13 @@
         <v>41725</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M32" s="7">
         <v>36</v>
@@ -7663,13 +7660,13 @@
         <v>41725</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7723,7 +7720,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7748,13 +7745,13 @@
         <v>120455</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M34" s="7">
         <v>99</v>
@@ -7763,13 +7760,13 @@
         <v>120455</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7797,13 +7794,13 @@
         <v>330702</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M35" s="7">
         <v>277</v>
@@ -7812,13 +7809,13 @@
         <v>330702</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7846,13 +7843,13 @@
         <v>120445</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M36" s="7">
         <v>106</v>
@@ -7861,13 +7858,13 @@
         <v>120445</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,13 +7892,13 @@
         <v>40667</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M37" s="7">
         <v>35</v>
@@ -7910,13 +7907,13 @@
         <v>40667</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7944,13 +7941,13 @@
         <v>23442</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M38" s="7">
         <v>21</v>
@@ -7959,13 +7956,13 @@
         <v>23442</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,13 +8041,13 @@
         <v>251902</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M40" s="7">
         <v>225</v>
@@ -8059,13 +8056,13 @@
         <v>251902</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8093,13 +8090,13 @@
         <v>745486</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M41" s="7">
         <v>669</v>
@@ -8108,13 +8105,13 @@
         <v>745486</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8142,13 +8139,13 @@
         <v>1106691</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M42" s="7">
         <v>1061</v>
@@ -8157,13 +8154,13 @@
         <v>1106691</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8191,13 +8188,13 @@
         <v>563675</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M43" s="7">
         <v>545</v>
@@ -8206,13 +8203,13 @@
         <v>563675</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8240,13 +8237,13 @@
         <v>393781</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>69</v>
+        <v>322</v>
       </c>
       <c r="K44" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M44" s="7">
         <v>377</v>
@@ -8255,13 +8252,13 @@
         <v>393781</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>69</v>
+        <v>322</v>
       </c>
       <c r="P44" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8315,7 +8312,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -8337,7 +8334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B894534-FE60-409D-B0D6-A3BB269B012D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37BE776-C5DE-4C86-8979-A2A33797D9AA}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8621,13 +8618,13 @@
         <v>29516</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>101</v>
+        <v>335</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -8636,13 +8633,13 @@
         <v>29516</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>101</v>
+        <v>335</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8670,10 +8667,10 @@
         <v>28872</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>339</v>
@@ -8685,10 +8682,10 @@
         <v>28872</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>339</v>
@@ -8770,13 +8767,13 @@
         <v>41158</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -8785,13 +8782,13 @@
         <v>41158</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8819,13 +8816,13 @@
         <v>50025</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -8834,13 +8831,13 @@
         <v>50025</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8868,13 +8865,13 @@
         <v>96879</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M12" s="7">
         <v>92</v>
@@ -8883,13 +8880,13 @@
         <v>96879</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8917,13 +8914,13 @@
         <v>47410</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>351</v>
+        <v>109</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -8932,13 +8929,13 @@
         <v>47410</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>351</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8966,13 +8963,13 @@
         <v>55485</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>50</v>
@@ -8981,13 +8978,13 @@
         <v>55485</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9066,13 +9063,13 @@
         <v>32581</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -9081,13 +9078,13 @@
         <v>32581</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9115,13 +9112,13 @@
         <v>73811</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -9130,13 +9127,13 @@
         <v>73811</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9164,13 +9161,13 @@
         <v>117429</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M18" s="7">
         <v>173</v>
@@ -9179,13 +9176,13 @@
         <v>117429</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9213,13 +9210,13 @@
         <v>80415</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -9228,13 +9225,13 @@
         <v>80415</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9262,13 +9259,13 @@
         <v>57738</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>56</v>
+        <v>302</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>364</v>
       </c>
       <c r="M20" s="7">
         <v>85</v>
@@ -9277,13 +9274,13 @@
         <v>57738</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>56</v>
+        <v>302</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9337,7 +9334,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -9362,13 +9359,13 @@
         <v>32038</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
@@ -9377,13 +9374,13 @@
         <v>32038</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9411,13 +9408,13 @@
         <v>106581</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M23" s="7">
         <v>153</v>
@@ -9426,13 +9423,13 @@
         <v>106581</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9460,13 +9457,13 @@
         <v>158922</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M24" s="7">
         <v>237</v>
@@ -9475,13 +9472,13 @@
         <v>158922</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9509,13 +9506,13 @@
         <v>128429</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M25" s="7">
         <v>192</v>
@@ -9524,13 +9521,13 @@
         <v>128429</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9558,13 +9555,13 @@
         <v>71445</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M26" s="7">
         <v>117</v>
@@ -9573,13 +9570,13 @@
         <v>71445</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9633,7 +9630,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9658,13 +9655,13 @@
         <v>17935</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M28" s="7">
         <v>26</v>
@@ -9673,13 +9670,13 @@
         <v>17935</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9707,13 +9704,13 @@
         <v>126111</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M29" s="7">
         <v>207</v>
@@ -9722,13 +9719,13 @@
         <v>126111</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9759,10 +9756,10 @@
         <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M30" s="7">
         <v>213</v>
@@ -9774,10 +9771,10 @@
         <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9805,13 +9802,13 @@
         <v>95879</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M31" s="7">
         <v>160</v>
@@ -9820,13 +9817,13 @@
         <v>95879</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9854,13 +9851,13 @@
         <v>47748</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M32" s="7">
         <v>80</v>
@@ -9869,13 +9866,13 @@
         <v>47748</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9929,7 +9926,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9954,13 +9951,13 @@
         <v>81216</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>397</v>
+        <v>159</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M34" s="7">
         <v>149</v>
@@ -9969,13 +9966,13 @@
         <v>81216</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>397</v>
+        <v>159</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10003,13 +10000,13 @@
         <v>388603</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M35" s="7">
         <v>729</v>
@@ -10018,13 +10015,13 @@
         <v>388603</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10052,13 +10049,13 @@
         <v>106435</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M36" s="7">
         <v>199</v>
@@ -10067,13 +10064,13 @@
         <v>106435</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10101,13 +10098,13 @@
         <v>58276</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M37" s="7">
         <v>102</v>
@@ -10116,13 +10113,13 @@
         <v>58276</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10150,13 +10147,13 @@
         <v>22180</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M38" s="7">
         <v>42</v>
@@ -10165,13 +10162,13 @@
         <v>22180</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10250,13 +10247,13 @@
         <v>212574</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M40" s="7">
         <v>320</v>
@@ -10265,13 +10262,13 @@
         <v>212574</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10299,13 +10296,13 @@
         <v>757991</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M41" s="7">
         <v>1231</v>
@@ -10314,13 +10311,13 @@
         <v>757991</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10348,13 +10345,13 @@
         <v>633219</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M42" s="7">
         <v>933</v>
@@ -10363,13 +10360,13 @@
         <v>633219</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10397,13 +10394,13 @@
         <v>439924</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M43" s="7">
         <v>631</v>
@@ -10412,13 +10409,13 @@
         <v>439924</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10446,13 +10443,13 @@
         <v>283468</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M44" s="7">
         <v>389</v>
@@ -10461,13 +10458,13 @@
         <v>283468</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10521,7 +10518,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P42A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90C4FD88-2234-4C7A-A761-7F2230DE4AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D888446-3D05-4B33-AA38-E35E643A6BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{650BCD11-89CA-4EEF-8F0F-5F64865AEB52}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C2A7D91C-5783-4FDF-BFB5-D6BA96E0D25A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="423">
   <si>
     <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2007 (Tasa respuesta: 16,31%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>25,93%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
   </si>
   <si>
     <t>Hace 3 o más años</t>
@@ -92,1155 +92,1164 @@
     <t>16,53%</t>
   </si>
   <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>Entre 1 y 3 años</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>Entre 6 meses y 1 años</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>Hace menos de 6 meses</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2016 (Tasa respuesta: 43,8%)</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>Entre 1 y 3 años</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>Entre 6 meses y 1 años</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>Hace menos de 6 meses</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
   </si>
   <si>
     <t>21,37%</t>
   </si>
   <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2015 (Tasa respuesta: 43,8%)</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
     <t>18,58%</t>
   </si>
   <si>
@@ -1259,9 +1268,6 @@
     <t>2,41%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
     <t>9,13%</t>
   </si>
   <si>
@@ -1296,9 +1302,6 @@
   </si>
   <si>
     <t>20,45%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
   </si>
   <si>
     <t>10,85%</t>
@@ -1716,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E386463-8D0D-46DE-8EA3-C0FFA877C45F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14510C3D-DD5C-4D53-BD5B-AB39D7F67137}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2549,7 +2552,7 @@
         <v>56</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -2564,7 +2567,7 @@
         <v>56</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,13 +2595,13 @@
         <v>57832</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -2607,13 +2610,13 @@
         <v>57832</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,13 +2644,13 @@
         <v>44826</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -2656,13 +2659,13 @@
         <v>44826</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,7 +2719,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2741,13 +2744,13 @@
         <v>45200</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -2756,13 +2759,13 @@
         <v>45200</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2793,13 @@
         <v>36863</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M23" s="7">
         <v>36</v>
@@ -2805,13 +2808,13 @@
         <v>36863</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,13 +2842,13 @@
         <v>45219</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -2854,13 +2857,13 @@
         <v>45219</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,10 +3141,10 @@
         <v>86</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
@@ -3153,10 +3156,10 @@
         <v>86</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3187,13 @@
         <v>30372</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M31" s="7">
         <v>30</v>
@@ -3199,13 +3202,13 @@
         <v>30372</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3236,13 @@
         <v>18666</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M32" s="7">
         <v>19</v>
@@ -3248,13 +3251,13 @@
         <v>18666</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,7 +3391,7 @@
         <v>99</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="M35" s="7">
         <v>31</v>
@@ -3403,7 +3406,7 @@
         <v>99</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3434,13 @@
         <v>37388</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M36" s="7">
         <v>39</v>
@@ -3446,13 +3449,13 @@
         <v>37388</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,13 +3483,13 @@
         <v>31078</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M37" s="7">
         <v>31</v>
@@ -3495,13 +3498,13 @@
         <v>31078</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3532,13 @@
         <v>24338</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M38" s="7">
         <v>25</v>
@@ -3544,13 +3547,13 @@
         <v>24338</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3632,13 @@
         <v>243533</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M40" s="7">
         <v>235</v>
@@ -3644,13 +3647,13 @@
         <v>243533</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,10 +3681,10 @@
         <v>204651</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>114</v>
@@ -3693,10 +3696,10 @@
         <v>204651</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>114</v>
@@ -3733,7 +3736,7 @@
         <v>116</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="M42" s="7">
         <v>248</v>
@@ -3748,7 +3751,7 @@
         <v>116</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3779,13 @@
         <v>213973</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M43" s="7">
         <v>209</v>
@@ -3791,13 +3794,13 @@
         <v>213973</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3828,13 @@
         <v>174055</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M44" s="7">
         <v>172</v>
@@ -3840,13 +3843,13 @@
         <v>174055</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,7 +3903,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3922,7 +3925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC38F6A-C98E-483E-BADC-7C2A743F75F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4A0F2D-3B1C-4BF9-A11E-55CEE9C7966E}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3939,7 +3942,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4059,13 +4062,13 @@
         <v>17697</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4074,13 +4077,13 @@
         <v>17697</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +4111,13 @@
         <v>13446</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -4123,13 +4126,13 @@
         <v>13446</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4160,13 @@
         <v>74526</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M6" s="7">
         <v>71</v>
@@ -4172,13 +4175,13 @@
         <v>74526</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4209,13 @@
         <v>71907</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M7" s="7">
         <v>69</v>
@@ -4221,13 +4224,13 @@
         <v>71907</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4258,13 @@
         <v>72777</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M8" s="7">
         <v>71</v>
@@ -4270,13 +4273,13 @@
         <v>72777</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,13 +4358,13 @@
         <v>62995</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -4370,13 +4373,13 @@
         <v>62995</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4407,13 @@
         <v>35138</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -4419,13 +4422,13 @@
         <v>35138</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4456,13 @@
         <v>179282</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M12" s="7">
         <v>170</v>
@@ -4468,13 +4471,13 @@
         <v>179282</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,13 +4505,13 @@
         <v>135092</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M13" s="7">
         <v>125</v>
@@ -4517,13 +4520,13 @@
         <v>135092</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4554,13 @@
         <v>143777</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -4566,13 +4569,13 @@
         <v>143777</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +4654,13 @@
         <v>76147</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -4666,13 +4669,13 @@
         <v>76147</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4703,13 @@
         <v>88960</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -4715,13 +4718,13 @@
         <v>88960</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4752,13 @@
         <v>229394</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M18" s="7">
         <v>218</v>
@@ -4764,13 +4767,13 @@
         <v>229394</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4801,13 @@
         <v>168261</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M19" s="7">
         <v>155</v>
@@ -4813,13 +4816,13 @@
         <v>168261</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4850,13 @@
         <v>133244</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
@@ -4862,13 +4865,13 @@
         <v>133244</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,7 +4925,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4947,13 +4950,13 @@
         <v>45480</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -4962,13 +4965,13 @@
         <v>45480</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,13 +4999,13 @@
         <v>102902</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M23" s="7">
         <v>90</v>
@@ -5011,13 +5014,13 @@
         <v>102902</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,13 +5048,13 @@
         <v>208561</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M24" s="7">
         <v>178</v>
@@ -5060,13 +5063,13 @@
         <v>208561</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,7 +5097,7 @@
         <v>152530</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>178</v>
@@ -5109,7 +5112,7 @@
         <v>152530</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>178</v>
@@ -5295,10 +5298,10 @@
         <v>186</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M29" s="7">
         <v>118</v>
@@ -5310,10 +5313,10 @@
         <v>186</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,13 +5344,13 @@
         <v>134487</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M30" s="7">
         <v>121</v>
@@ -5356,13 +5359,13 @@
         <v>134487</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5393,13 @@
         <v>85101</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M31" s="7">
         <v>77</v>
@@ -5405,13 +5408,13 @@
         <v>85101</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5442,13 @@
         <v>44846</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M32" s="7">
         <v>39</v>
@@ -5454,13 +5457,13 @@
         <v>44846</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5542,13 @@
         <v>100677</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="M34" s="7">
         <v>94</v>
@@ -5554,13 +5557,13 @@
         <v>100677</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5591,13 @@
         <v>306926</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M35" s="7">
         <v>288</v>
@@ -5603,13 +5606,13 @@
         <v>306926</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,13 +5640,13 @@
         <v>87694</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="M36" s="7">
         <v>84</v>
@@ -5652,13 +5655,13 @@
         <v>87694</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5689,13 @@
         <v>45215</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M37" s="7">
         <v>43</v>
@@ -5701,13 +5704,13 @@
         <v>45215</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5738,13 @@
         <v>34668</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M38" s="7">
         <v>31</v>
@@ -5750,13 +5753,13 @@
         <v>34668</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,13 +5838,13 @@
         <v>330198</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M40" s="7">
         <v>311</v>
@@ -5850,13 +5853,13 @@
         <v>330198</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,13 +5887,13 @@
         <v>676078</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M41" s="7">
         <v>626</v>
@@ -5899,13 +5902,13 @@
         <v>676078</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5936,13 @@
         <v>913943</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M42" s="7">
         <v>842</v>
@@ -5948,13 +5951,13 @@
         <v>913943</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,13 +5985,13 @@
         <v>658107</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M43" s="7">
         <v>603</v>
@@ -5997,13 +6000,13 @@
         <v>658107</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,13 +6034,13 @@
         <v>503832</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M44" s="7">
         <v>464</v>
@@ -6046,13 +6049,13 @@
         <v>503832</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,7 +6109,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6128,7 +6131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F393E1-FD1C-4639-ABD5-51E6FCE8DCEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A338EC62-B635-4879-9C57-7FF17126DD8E}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6145,7 +6148,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6265,13 +6268,13 @@
         <v>11871</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -6280,13 +6283,13 @@
         <v>11871</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6314,13 +6317,13 @@
         <v>12958</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -6329,13 +6332,13 @@
         <v>12958</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,13 +6366,13 @@
         <v>88653</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M6" s="7">
         <v>89</v>
@@ -6378,13 +6381,13 @@
         <v>88653</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,13 +6415,13 @@
         <v>62544</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -6427,13 +6430,13 @@
         <v>62544</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,13 +6464,13 @@
         <v>57135</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -6476,13 +6479,13 @@
         <v>57135</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6561,13 +6564,13 @@
         <v>31822</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -6576,13 +6579,13 @@
         <v>31822</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,13 +6613,13 @@
         <v>48189</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -6625,13 +6628,13 @@
         <v>48189</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6659,13 +6662,13 @@
         <v>202203</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M12" s="7">
         <v>209</v>
@@ -6674,13 +6677,13 @@
         <v>202203</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,13 +6711,13 @@
         <v>128539</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M13" s="7">
         <v>132</v>
@@ -6723,13 +6726,13 @@
         <v>128539</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,13 +6760,13 @@
         <v>87433</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
@@ -6772,13 +6775,13 @@
         <v>87433</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6857,13 +6860,13 @@
         <v>29307</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -6872,13 +6875,13 @@
         <v>29307</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,13 +6909,13 @@
         <v>85739</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -6921,13 +6924,13 @@
         <v>85739</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>258</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6955,13 +6958,13 @@
         <v>254374</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M18" s="7">
         <v>260</v>
@@ -6970,13 +6973,13 @@
         <v>254374</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7004,13 +7007,13 @@
         <v>134913</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>137</v>
@@ -7019,13 +7022,13 @@
         <v>134913</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,13 +7056,13 @@
         <v>116486</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -7068,13 +7071,13 @@
         <v>116486</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>153</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,7 +7131,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7153,13 +7156,13 @@
         <v>33859</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -7168,13 +7171,13 @@
         <v>33859</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7202,13 +7205,13 @@
         <v>124873</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M23" s="7">
         <v>117</v>
@@ -7217,13 +7220,13 @@
         <v>124873</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7251,13 +7254,13 @@
         <v>262649</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M24" s="7">
         <v>243</v>
@@ -7266,13 +7269,13 @@
         <v>262649</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,13 +7303,13 @@
         <v>123328</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M25" s="7">
         <v>113</v>
@@ -7315,13 +7318,13 @@
         <v>123328</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,13 +7352,13 @@
         <v>67561</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M26" s="7">
         <v>63</v>
@@ -7364,13 +7367,13 @@
         <v>67561</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7449,13 +7452,13 @@
         <v>24587</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M28" s="7">
         <v>21</v>
@@ -7464,13 +7467,13 @@
         <v>24587</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7498,13 +7501,13 @@
         <v>143026</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M29" s="7">
         <v>126</v>
@@ -7513,13 +7516,13 @@
         <v>143026</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7547,13 +7550,13 @@
         <v>178367</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M30" s="7">
         <v>154</v>
@@ -7562,13 +7565,13 @@
         <v>178367</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7596,13 +7599,13 @@
         <v>73685</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>292</v>
+        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>64</v>
@@ -7611,13 +7614,13 @@
         <v>73685</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>292</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7645,13 +7648,13 @@
         <v>41725</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M32" s="7">
         <v>36</v>
@@ -7660,13 +7663,13 @@
         <v>41725</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,13 +7748,13 @@
         <v>120455</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M34" s="7">
         <v>99</v>
@@ -7760,13 +7763,13 @@
         <v>120455</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7794,13 +7797,13 @@
         <v>330702</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M35" s="7">
         <v>277</v>
@@ -7809,13 +7812,13 @@
         <v>330702</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7843,13 +7846,13 @@
         <v>120445</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M36" s="7">
         <v>106</v>
@@ -7858,13 +7861,13 @@
         <v>120445</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,13 +7895,13 @@
         <v>40667</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M37" s="7">
         <v>35</v>
@@ -7907,13 +7910,13 @@
         <v>40667</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7941,13 +7944,13 @@
         <v>23442</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M38" s="7">
         <v>21</v>
@@ -7956,13 +7959,13 @@
         <v>23442</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8041,13 +8044,13 @@
         <v>251902</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M40" s="7">
         <v>225</v>
@@ -8056,13 +8059,13 @@
         <v>251902</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8090,13 +8093,13 @@
         <v>745486</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>315</v>
+        <v>187</v>
       </c>
       <c r="M41" s="7">
         <v>669</v>
@@ -8105,13 +8108,13 @@
         <v>745486</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>315</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8139,13 +8142,13 @@
         <v>1106691</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M42" s="7">
         <v>1061</v>
@@ -8154,13 +8157,13 @@
         <v>1106691</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8188,10 +8191,10 @@
         <v>563675</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>320</v>
+        <v>119</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>321</v>
@@ -8203,10 +8206,10 @@
         <v>563675</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>320</v>
+        <v>119</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>321</v>
@@ -8243,7 +8246,7 @@
         <v>323</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>324</v>
+        <v>199</v>
       </c>
       <c r="M44" s="7">
         <v>377</v>
@@ -8258,7 +8261,7 @@
         <v>323</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>324</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8312,7 +8315,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -8334,7 +8337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37BE776-C5DE-4C86-8979-A2A33797D9AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3465F0B-68CC-4821-B454-45DE53FAF0FF}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8351,7 +8354,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8471,13 +8474,13 @@
         <v>7647</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -8486,13 +8489,13 @@
         <v>7647</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8520,13 +8523,13 @@
         <v>12861</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -8535,13 +8538,13 @@
         <v>12861</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8569,13 +8572,13 @@
         <v>32326</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -8584,13 +8587,13 @@
         <v>32326</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8618,13 +8621,13 @@
         <v>29516</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -8633,13 +8636,13 @@
         <v>29516</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8667,13 +8670,13 @@
         <v>28872</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -8682,13 +8685,13 @@
         <v>28872</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8767,13 +8770,13 @@
         <v>41158</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>74</v>
+        <v>339</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -8782,13 +8785,13 @@
         <v>41158</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>74</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>340</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8816,13 +8819,13 @@
         <v>50025</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -8831,13 +8834,13 @@
         <v>50025</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8865,13 +8868,13 @@
         <v>96879</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M12" s="7">
         <v>92</v>
@@ -8880,13 +8883,13 @@
         <v>96879</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8914,13 +8917,13 @@
         <v>47410</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>109</v>
+        <v>349</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -8929,13 +8932,13 @@
         <v>47410</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8963,13 +8966,13 @@
         <v>55485</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
         <v>50</v>
@@ -8978,13 +8981,13 @@
         <v>55485</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9063,13 +9066,13 @@
         <v>32581</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -9078,13 +9081,13 @@
         <v>32581</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9112,13 +9115,13 @@
         <v>73811</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -9127,13 +9130,13 @@
         <v>73811</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9161,13 +9164,13 @@
         <v>117429</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M18" s="7">
         <v>173</v>
@@ -9176,13 +9179,13 @@
         <v>117429</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9210,13 +9213,13 @@
         <v>80415</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -9225,13 +9228,13 @@
         <v>80415</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9259,13 +9262,13 @@
         <v>57738</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>85</v>
@@ -9274,13 +9277,13 @@
         <v>57738</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9334,7 +9337,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -9359,13 +9362,13 @@
         <v>32038</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
@@ -9374,13 +9377,13 @@
         <v>32038</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9408,13 +9411,13 @@
         <v>106581</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M23" s="7">
         <v>153</v>
@@ -9423,13 +9426,13 @@
         <v>106581</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9457,13 +9460,13 @@
         <v>158922</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M24" s="7">
         <v>237</v>
@@ -9472,13 +9475,13 @@
         <v>158922</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9506,13 +9509,13 @@
         <v>128429</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>374</v>
+        <v>18</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M25" s="7">
         <v>192</v>
@@ -9521,13 +9524,13 @@
         <v>128429</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>374</v>
+        <v>18</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9555,13 +9558,13 @@
         <v>71445</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M26" s="7">
         <v>117</v>
@@ -9570,13 +9573,13 @@
         <v>71445</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9655,13 +9658,13 @@
         <v>17935</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M28" s="7">
         <v>26</v>
@@ -9670,13 +9673,13 @@
         <v>17935</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9704,13 +9707,13 @@
         <v>126111</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M29" s="7">
         <v>207</v>
@@ -9719,13 +9722,13 @@
         <v>126111</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9753,13 +9756,13 @@
         <v>121228</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M30" s="7">
         <v>213</v>
@@ -9768,13 +9771,13 @@
         <v>121228</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9802,13 +9805,13 @@
         <v>95879</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M31" s="7">
         <v>160</v>
@@ -9817,13 +9820,13 @@
         <v>95879</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9851,13 +9854,13 @@
         <v>47748</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M32" s="7">
         <v>80</v>
@@ -9866,13 +9869,13 @@
         <v>47748</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9951,13 +9954,13 @@
         <v>81216</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>159</v>
+        <v>397</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M34" s="7">
         <v>149</v>
@@ -9966,13 +9969,13 @@
         <v>81216</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>159</v>
+        <v>397</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10000,13 +10003,13 @@
         <v>388603</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M35" s="7">
         <v>729</v>
@@ -10015,13 +10018,13 @@
         <v>388603</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10049,13 +10052,13 @@
         <v>106435</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>167</v>
+        <v>402</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>399</v>
+        <v>34</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M36" s="7">
         <v>199</v>
@@ -10064,13 +10067,13 @@
         <v>106435</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>167</v>
+        <v>402</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>399</v>
+        <v>34</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10098,13 +10101,13 @@
         <v>58276</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M37" s="7">
         <v>102</v>
@@ -10113,13 +10116,13 @@
         <v>58276</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10147,13 +10150,13 @@
         <v>22180</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>406</v>
+        <v>308</v>
       </c>
       <c r="M38" s="7">
         <v>42</v>
@@ -10162,13 +10165,13 @@
         <v>22180</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>406</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10247,13 +10250,13 @@
         <v>212574</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M40" s="7">
         <v>320</v>
@@ -10262,13 +10265,13 @@
         <v>212574</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10296,13 +10299,13 @@
         <v>757991</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M41" s="7">
         <v>1231</v>
@@ -10311,13 +10314,13 @@
         <v>757991</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10345,13 +10348,13 @@
         <v>633219</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M42" s="7">
         <v>933</v>
@@ -10360,13 +10363,13 @@
         <v>633219</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10394,13 +10397,13 @@
         <v>439924</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M43" s="7">
         <v>631</v>
@@ -10409,13 +10412,13 @@
         <v>439924</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10443,13 +10446,13 @@
         <v>283468</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>419</v>
+        <v>298</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M44" s="7">
         <v>389</v>
@@ -10458,13 +10461,13 @@
         <v>283468</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>419</v>
+        <v>298</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10518,7 +10521,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P42A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D888446-3D05-4B33-AA38-E35E643A6BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FD73A45-85DD-41DF-AA70-3093BC9B1550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C2A7D91C-5783-4FDF-BFB5-D6BA96E0D25A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E383F682-C9E3-4422-B05B-D5C3B4CAF11B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -80,10 +80,10 @@
     <t>25,93%</t>
   </si>
   <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
   </si>
   <si>
     <t>Hace 3 o más años</t>
@@ -92,1222 +92,1222 @@
     <t>16,53%</t>
   </si>
   <si>
-    <t>9,97%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>Entre 1 y 3 años</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>Entre 6 meses y 1 años</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>Hace menos de 6 meses</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2016 (Tasa respuesta: 43,8%)</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
   </si>
   <si>
     <t>25,82%</t>
   </si>
   <si>
-    <t>Entre 1 y 3 años</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>Entre 6 meses y 1 años</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>Hace menos de 6 meses</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2016 (Tasa respuesta: 43,8%)</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
+    <t>13,36%</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14510C3D-DD5C-4D53-BD5B-AB39D7F67137}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3368801-516A-4000-9FE9-7386C8778A58}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2848,7 +2848,7 @@
         <v>72</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -2863,7 +2863,7 @@
         <v>72</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2891,13 @@
         <v>39197</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -2906,13 +2906,13 @@
         <v>39197</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,13 +2940,13 @@
         <v>40802</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M26" s="7">
         <v>39</v>
@@ -2955,13 +2955,13 @@
         <v>40802</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,7 +3015,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3040,13 +3040,13 @@
         <v>38275</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M28" s="7">
         <v>38</v>
@@ -3055,13 +3055,13 @@
         <v>38275</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3089,13 @@
         <v>28148</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -3104,13 +3104,13 @@
         <v>28148</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,10 +3141,10 @@
         <v>86</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
@@ -3156,10 +3156,10 @@
         <v>86</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,13 +3187,13 @@
         <v>30372</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M31" s="7">
         <v>30</v>
@@ -3202,13 +3202,13 @@
         <v>30372</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3236,13 @@
         <v>18666</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M32" s="7">
         <v>19</v>
@@ -3251,13 +3251,13 @@
         <v>18666</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,7 +3311,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3336,13 +3336,13 @@
         <v>37331</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M34" s="7">
         <v>37</v>
@@ -3351,13 +3351,13 @@
         <v>37331</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3385,13 @@
         <v>31005</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="M35" s="7">
         <v>31</v>
@@ -3400,13 +3400,13 @@
         <v>31005</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3434,13 @@
         <v>37388</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M36" s="7">
         <v>39</v>
@@ -3449,13 +3449,13 @@
         <v>37388</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3483,13 @@
         <v>31078</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M37" s="7">
         <v>31</v>
@@ -3498,13 +3498,13 @@
         <v>31078</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,13 +3532,13 @@
         <v>24338</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M38" s="7">
         <v>25</v>
@@ -3547,13 +3547,13 @@
         <v>24338</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3632,13 @@
         <v>243533</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M40" s="7">
         <v>235</v>
@@ -3647,13 +3647,13 @@
         <v>243533</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3681,13 @@
         <v>204651</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M41" s="7">
         <v>198</v>
@@ -3696,13 +3696,13 @@
         <v>204651</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,13 +3730,13 @@
         <v>252904</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="M42" s="7">
         <v>248</v>
@@ -3745,13 +3745,13 @@
         <v>252904</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3779,13 @@
         <v>213973</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M43" s="7">
         <v>209</v>
@@ -3794,13 +3794,13 @@
         <v>213973</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3828,13 @@
         <v>174055</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M44" s="7">
         <v>172</v>
@@ -3843,13 +3843,13 @@
         <v>174055</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,7 +3903,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3925,7 +3925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4A0F2D-3B1C-4BF9-A11E-55CEE9C7966E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06842122-D009-45C8-BEC2-51BDD50F70B6}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3942,7 +3942,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4062,13 +4062,13 @@
         <v>17697</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4077,13 +4077,13 @@
         <v>17697</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4111,13 @@
         <v>13446</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -4126,13 +4126,13 @@
         <v>13446</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4160,13 @@
         <v>74526</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M6" s="7">
         <v>71</v>
@@ -4175,13 +4175,13 @@
         <v>74526</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4209,13 @@
         <v>71907</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M7" s="7">
         <v>69</v>
@@ -4224,13 +4224,13 @@
         <v>71907</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4258,13 @@
         <v>72777</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>71</v>
@@ -4273,13 +4273,13 @@
         <v>72777</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4358,13 @@
         <v>62995</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -4373,13 +4373,13 @@
         <v>62995</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4407,13 @@
         <v>35138</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -4422,13 +4422,13 @@
         <v>35138</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4456,13 @@
         <v>179282</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M12" s="7">
         <v>170</v>
@@ -4471,13 +4471,13 @@
         <v>179282</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4505,13 @@
         <v>135092</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M13" s="7">
         <v>125</v>
@@ -4520,13 +4520,13 @@
         <v>135092</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4554,13 @@
         <v>143777</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -4569,13 +4569,13 @@
         <v>143777</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4654,13 @@
         <v>76147</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -4669,13 +4669,13 @@
         <v>76147</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4703,13 @@
         <v>88960</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -4718,13 +4718,13 @@
         <v>88960</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4752,13 @@
         <v>229394</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M18" s="7">
         <v>218</v>
@@ -4767,13 +4767,13 @@
         <v>229394</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4801,13 @@
         <v>168261</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M19" s="7">
         <v>155</v>
@@ -4816,13 +4816,13 @@
         <v>168261</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4850,13 @@
         <v>133244</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
@@ -4865,13 +4865,13 @@
         <v>133244</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,13 +4950,13 @@
         <v>45480</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -4965,13 +4965,13 @@
         <v>45480</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +4999,13 @@
         <v>102902</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M23" s="7">
         <v>90</v>
@@ -5014,13 +5014,13 @@
         <v>102902</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5048,13 @@
         <v>208561</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M24" s="7">
         <v>178</v>
@@ -5063,13 +5063,13 @@
         <v>208561</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5097,13 @@
         <v>152530</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>134</v>
@@ -5112,13 +5112,13 @@
         <v>152530</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5146,13 @@
         <v>74520</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>67</v>
@@ -5161,13 +5161,13 @@
         <v>74520</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,7 +5221,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5246,13 +5246,13 @@
         <v>27202</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -5261,13 +5261,13 @@
         <v>27202</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5295,13 @@
         <v>128707</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M29" s="7">
         <v>118</v>
@@ -5310,13 +5310,13 @@
         <v>128707</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5344,13 @@
         <v>134487</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M30" s="7">
         <v>121</v>
@@ -5359,13 +5359,13 @@
         <v>134487</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5393,13 @@
         <v>85101</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M31" s="7">
         <v>77</v>
@@ -5408,13 +5408,13 @@
         <v>85101</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5442,13 @@
         <v>44846</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="M32" s="7">
         <v>39</v>
@@ -5457,13 +5457,13 @@
         <v>44846</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,7 +5517,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -5542,13 +5542,13 @@
         <v>100677</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="M34" s="7">
         <v>94</v>
@@ -5557,13 +5557,13 @@
         <v>100677</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,13 +5591,13 @@
         <v>306926</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M35" s="7">
         <v>288</v>
@@ -5606,13 +5606,13 @@
         <v>306926</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,13 +5640,13 @@
         <v>87694</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="M36" s="7">
         <v>84</v>
@@ -5655,13 +5655,13 @@
         <v>87694</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>206</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,13 +5689,13 @@
         <v>45215</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M37" s="7">
         <v>43</v>
@@ -5704,13 +5704,13 @@
         <v>45215</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,13 +5738,13 @@
         <v>34668</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M38" s="7">
         <v>31</v>
@@ -5753,13 +5753,13 @@
         <v>34668</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5838,13 @@
         <v>330198</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M40" s="7">
         <v>311</v>
@@ -5853,13 +5853,13 @@
         <v>330198</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,13 +5887,13 @@
         <v>676078</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M41" s="7">
         <v>626</v>
@@ -5902,13 +5902,13 @@
         <v>676078</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,13 +5936,13 @@
         <v>913943</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M42" s="7">
         <v>842</v>
@@ -5951,13 +5951,13 @@
         <v>913943</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +5985,13 @@
         <v>658107</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M43" s="7">
         <v>603</v>
@@ -6000,13 +6000,13 @@
         <v>658107</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +6034,13 @@
         <v>503832</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M44" s="7">
         <v>464</v>
@@ -6049,13 +6049,13 @@
         <v>503832</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,7 +6109,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -6131,7 +6131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A338EC62-B635-4879-9C57-7FF17126DD8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A51B2A-B8FE-4564-985C-F979DECEBE9F}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6148,7 +6148,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6268,13 +6268,13 @@
         <v>11871</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -6283,13 +6283,13 @@
         <v>11871</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,13 +6317,13 @@
         <v>12958</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -6332,13 +6332,13 @@
         <v>12958</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6366,13 @@
         <v>88653</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M6" s="7">
         <v>89</v>
@@ -6381,13 +6381,13 @@
         <v>88653</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6415,13 +6415,13 @@
         <v>62544</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>58</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -6430,13 +6430,13 @@
         <v>62544</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>239</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6464,13 +6464,13 @@
         <v>57135</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -6479,13 +6479,13 @@
         <v>57135</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,13 +6564,13 @@
         <v>31822</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -6579,13 +6579,13 @@
         <v>31822</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,13 +6613,13 @@
         <v>48189</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -6628,13 +6628,13 @@
         <v>48189</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6662,13 +6662,13 @@
         <v>202203</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M12" s="7">
         <v>209</v>
@@ -6677,13 +6677,13 @@
         <v>202203</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,13 +6711,13 @@
         <v>128539</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M13" s="7">
         <v>132</v>
@@ -6726,13 +6726,13 @@
         <v>128539</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6760,13 @@
         <v>87433</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
@@ -6775,13 +6775,13 @@
         <v>87433</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6860,13 +6860,13 @@
         <v>29307</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -6875,13 +6875,13 @@
         <v>29307</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6909,13 +6909,13 @@
         <v>85739</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -6924,13 +6924,13 @@
         <v>85739</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6958,13 +6958,13 @@
         <v>254374</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M18" s="7">
         <v>260</v>
@@ -6973,13 +6973,13 @@
         <v>254374</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7007,13 +7007,13 @@
         <v>134913</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M19" s="7">
         <v>137</v>
@@ -7022,13 +7022,13 @@
         <v>134913</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,13 +7056,13 @@
         <v>116486</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -7071,13 +7071,13 @@
         <v>116486</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7156,13 +7156,13 @@
         <v>33859</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -7171,13 +7171,13 @@
         <v>33859</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7205,13 +7205,13 @@
         <v>124873</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M23" s="7">
         <v>117</v>
@@ -7220,13 +7220,13 @@
         <v>124873</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,13 +7254,13 @@
         <v>262649</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M24" s="7">
         <v>243</v>
@@ -7269,13 +7269,13 @@
         <v>262649</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,13 +7303,13 @@
         <v>123328</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M25" s="7">
         <v>113</v>
@@ -7318,13 +7318,13 @@
         <v>123328</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,13 +7352,13 @@
         <v>67561</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M26" s="7">
         <v>63</v>
@@ -7367,13 +7367,13 @@
         <v>67561</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,7 +7427,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7452,13 +7452,13 @@
         <v>24587</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M28" s="7">
         <v>21</v>
@@ -7467,13 +7467,13 @@
         <v>24587</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7501,13 @@
         <v>143026</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M29" s="7">
         <v>126</v>
@@ -7516,13 +7516,13 @@
         <v>143026</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7550,13 +7550,13 @@
         <v>178367</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M30" s="7">
         <v>154</v>
@@ -7565,13 +7565,13 @@
         <v>178367</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7599,13 +7599,13 @@
         <v>73685</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>64</v>
@@ -7614,13 +7614,13 @@
         <v>73685</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7648,13 +7648,13 @@
         <v>41725</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M32" s="7">
         <v>36</v>
@@ -7663,13 +7663,13 @@
         <v>41725</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7723,7 +7723,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7748,13 +7748,13 @@
         <v>120455</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M34" s="7">
         <v>99</v>
@@ -7763,13 +7763,13 @@
         <v>120455</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7797,13 +7797,13 @@
         <v>330702</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M35" s="7">
         <v>277</v>
@@ -7812,13 +7812,13 @@
         <v>330702</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7846,13 +7846,13 @@
         <v>120445</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M36" s="7">
         <v>106</v>
@@ -7861,13 +7861,13 @@
         <v>120445</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,13 +7895,13 @@
         <v>40667</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M37" s="7">
         <v>35</v>
@@ -7910,13 +7910,13 @@
         <v>40667</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7944,13 +7944,13 @@
         <v>23442</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M38" s="7">
         <v>21</v>
@@ -7959,13 +7959,13 @@
         <v>23442</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,13 +8044,13 @@
         <v>251902</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M40" s="7">
         <v>225</v>
@@ -8059,13 +8059,13 @@
         <v>251902</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8093,13 +8093,13 @@
         <v>745486</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="K41" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="L41" s="7" t="s">
-        <v>187</v>
+        <v>317</v>
       </c>
       <c r="M41" s="7">
         <v>669</v>
@@ -8108,13 +8108,13 @@
         <v>745486</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P41" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="Q41" s="7" t="s">
-        <v>187</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8142,13 +8142,13 @@
         <v>1106691</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M42" s="7">
         <v>1061</v>
@@ -8157,13 +8157,13 @@
         <v>1106691</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8191,13 +8191,13 @@
         <v>563675</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>119</v>
+        <v>322</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M43" s="7">
         <v>545</v>
@@ -8206,13 +8206,13 @@
         <v>563675</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>119</v>
+        <v>322</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8240,13 +8240,13 @@
         <v>393781</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>322</v>
+        <v>69</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="M44" s="7">
         <v>377</v>
@@ -8255,13 +8255,13 @@
         <v>393781</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>322</v>
+        <v>69</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8315,7 +8315,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -8337,7 +8337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3465F0B-68CC-4821-B454-45DE53FAF0FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB569BD9-3E54-4455-90DF-52E703A380B7}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8354,7 +8354,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8474,13 +8474,13 @@
         <v>7647</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -8489,13 +8489,13 @@
         <v>7647</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8523,13 +8523,13 @@
         <v>12861</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -8538,13 +8538,13 @@
         <v>12861</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8572,13 +8572,13 @@
         <v>32326</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -8587,13 +8587,13 @@
         <v>32326</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,7 +8621,7 @@
         <v>29516</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>334</v>
+        <v>101</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>335</v>
@@ -8636,7 +8636,7 @@
         <v>29516</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>334</v>
+        <v>101</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>335</v>
@@ -8673,10 +8673,10 @@
         <v>337</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -8688,10 +8688,10 @@
         <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8770,13 +8770,13 @@
         <v>41158</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -8785,13 +8785,13 @@
         <v>41158</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8819,13 +8819,13 @@
         <v>50025</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -8834,13 +8834,13 @@
         <v>50025</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8868,13 +8868,13 @@
         <v>96879</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M12" s="7">
         <v>92</v>
@@ -8883,13 +8883,13 @@
         <v>96879</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8917,13 +8917,13 @@
         <v>47410</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>350</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -8932,13 +8932,13 @@
         <v>47410</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>350</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8966,13 +8966,13 @@
         <v>55485</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M14" s="7">
         <v>50</v>
@@ -8981,13 +8981,13 @@
         <v>55485</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9066,13 +9066,13 @@
         <v>32581</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -9081,13 +9081,13 @@
         <v>32581</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9115,13 +9115,13 @@
         <v>73811</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -9130,13 +9130,13 @@
         <v>73811</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9164,13 +9164,13 @@
         <v>117429</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M18" s="7">
         <v>173</v>
@@ -9179,13 +9179,13 @@
         <v>117429</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9213,13 +9213,13 @@
         <v>80415</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
@@ -9228,13 +9228,13 @@
         <v>80415</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9262,13 +9262,13 @@
         <v>57738</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>85</v>
@@ -9277,13 +9277,13 @@
         <v>57738</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>365</v>
+        <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>366</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>367</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9362,13 +9362,13 @@
         <v>32038</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
@@ -9377,13 +9377,13 @@
         <v>32038</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9411,13 +9411,13 @@
         <v>106581</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M23" s="7">
         <v>153</v>
@@ -9426,13 +9426,13 @@
         <v>106581</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9460,13 +9460,13 @@
         <v>158922</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M24" s="7">
         <v>237</v>
@@ -9475,13 +9475,13 @@
         <v>158922</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9509,7 +9509,7 @@
         <v>128429</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>18</v>
+        <v>376</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>377</v>
@@ -9524,7 +9524,7 @@
         <v>128429</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>18</v>
+        <v>376</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>377</v>
@@ -9633,7 +9633,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9756,7 +9756,7 @@
         <v>121228</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>388</v>
@@ -9771,7 +9771,7 @@
         <v>121228</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>388</v>
@@ -9929,7 +9929,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -10052,13 +10052,13 @@
         <v>106435</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M36" s="7">
         <v>199</v>
@@ -10067,13 +10067,13 @@
         <v>106435</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10101,13 +10101,13 @@
         <v>58276</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M37" s="7">
         <v>102</v>
@@ -10116,13 +10116,13 @@
         <v>58276</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10150,13 +10150,13 @@
         <v>22180</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M38" s="7">
         <v>42</v>
@@ -10165,13 +10165,13 @@
         <v>22180</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10256,7 +10256,7 @@
         <v>410</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>411</v>
+        <v>109</v>
       </c>
       <c r="M40" s="7">
         <v>320</v>
@@ -10271,7 +10271,7 @@
         <v>410</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>411</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10299,13 +10299,13 @@
         <v>757991</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M41" s="7">
         <v>1231</v>
@@ -10314,13 +10314,13 @@
         <v>757991</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10348,13 +10348,13 @@
         <v>633219</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M42" s="7">
         <v>933</v>
@@ -10363,13 +10363,13 @@
         <v>633219</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10397,13 +10397,13 @@
         <v>439924</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M43" s="7">
         <v>631</v>
@@ -10412,13 +10412,13 @@
         <v>439924</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10446,7 +10446,7 @@
         <v>283468</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>421</v>
@@ -10461,7 +10461,7 @@
         <v>283468</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>421</v>
@@ -10521,7 +10521,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P42A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FD73A45-85DD-41DF-AA70-3093BC9B1550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7309A92E-4DFA-4BB8-809D-6D242A6BD1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E383F682-C9E3-4422-B05B-D5C3B4CAF11B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{04708C47-E150-469C-92D2-74646B212B78}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="475">
   <si>
     <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2007 (Tasa respuesta: 16,31%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca ha ido por motivos diferentes al embarazo o parto</t>
@@ -137,7 +137,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>19,4%</t>
@@ -185,7 +185,7 @@
     <t>18,88%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>21,92%</t>
@@ -233,7 +233,7 @@
     <t>21,59%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>21,81%</t>
@@ -281,7 +281,7 @@
     <t>25,55%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>25,19%</t>
@@ -326,988 +326,1144 @@
     <t>17,95%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>23,17%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2016 (Tasa respuesta: 43,8%)</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
   </si>
   <si>
     <t>16,95%</t>
   </si>
   <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2016 (Tasa respuesta: 43,8%)</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
   </si>
   <si>
     <t>15,85%</t>
   </si>
   <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
   </si>
 </sst>
 </file>
@@ -1719,8 +1875,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3368801-516A-4000-9FE9-7386C8778A58}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DCA912-2040-4A2E-A5AB-C66A9C2ADC86}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3330,10 +3486,10 @@
         <v>11</v>
       </c>
       <c r="H34" s="7">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I34" s="7">
-        <v>37331</v>
+        <v>21528</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>96</v>
@@ -3345,10 +3501,10 @@
         <v>98</v>
       </c>
       <c r="M34" s="7">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N34" s="7">
-        <v>37331</v>
+        <v>21528</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>96</v>
@@ -3379,10 +3535,10 @@
         <v>11</v>
       </c>
       <c r="H35" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I35" s="7">
-        <v>31005</v>
+        <v>21491</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>99</v>
@@ -3394,10 +3550,10 @@
         <v>101</v>
       </c>
       <c r="M35" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N35" s="7">
-        <v>31005</v>
+        <v>21491</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>99</v>
@@ -3428,10 +3584,10 @@
         <v>11</v>
       </c>
       <c r="H36" s="7">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I36" s="7">
-        <v>37388</v>
+        <v>23767</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>102</v>
@@ -3443,10 +3599,10 @@
         <v>104</v>
       </c>
       <c r="M36" s="7">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N36" s="7">
-        <v>37388</v>
+        <v>23767</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>102</v>
@@ -3477,34 +3633,34 @@
         <v>11</v>
       </c>
       <c r="H37" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I37" s="7">
-        <v>31078</v>
+        <v>18230</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="L37" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="M37" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N37" s="7">
-        <v>31078</v>
+        <v>18230</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,34 +3682,34 @@
         <v>11</v>
       </c>
       <c r="H38" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I38" s="7">
-        <v>24338</v>
+        <v>17518</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="L38" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="M38" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N38" s="7">
-        <v>24338</v>
+        <v>17518</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,10 +3731,10 @@
         <v>11</v>
       </c>
       <c r="H39" s="7">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="I39" s="7">
-        <v>161141</v>
+        <v>102535</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>31</v>
@@ -3590,10 +3746,10 @@
         <v>31</v>
       </c>
       <c r="M39" s="7">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="N39" s="7">
-        <v>161141</v>
+        <v>102535</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>31</v>
@@ -3607,7 +3763,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3626,10 +3782,10 @@
         <v>11</v>
       </c>
       <c r="H40" s="7">
-        <v>235</v>
+        <v>14</v>
       </c>
       <c r="I40" s="7">
-        <v>243533</v>
+        <v>15802</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>111</v>
@@ -3641,10 +3797,10 @@
         <v>113</v>
       </c>
       <c r="M40" s="7">
-        <v>235</v>
+        <v>14</v>
       </c>
       <c r="N40" s="7">
-        <v>243533</v>
+        <v>15802</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>111</v>
@@ -3675,10 +3831,10 @@
         <v>11</v>
       </c>
       <c r="H41" s="7">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="I41" s="7">
-        <v>204651</v>
+        <v>9514</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>114</v>
@@ -3690,10 +3846,10 @@
         <v>116</v>
       </c>
       <c r="M41" s="7">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="N41" s="7">
-        <v>204651</v>
+        <v>9514</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>114</v>
@@ -3724,10 +3880,10 @@
         <v>11</v>
       </c>
       <c r="H42" s="7">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="I42" s="7">
-        <v>252904</v>
+        <v>13621</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>117</v>
@@ -3736,13 +3892,13 @@
         <v>118</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="M42" s="7">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="N42" s="7">
-        <v>252904</v>
+        <v>13621</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>117</v>
@@ -3751,7 +3907,7 @@
         <v>118</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,13 +3929,13 @@
         <v>11</v>
       </c>
       <c r="H43" s="7">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="I43" s="7">
-        <v>213973</v>
+        <v>12848</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>120</v>
@@ -3788,13 +3944,13 @@
         <v>121</v>
       </c>
       <c r="M43" s="7">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="N43" s="7">
-        <v>213973</v>
+        <v>12848</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>120</v>
@@ -3822,10 +3978,10 @@
         <v>11</v>
       </c>
       <c r="H44" s="7">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="I44" s="7">
-        <v>174055</v>
+        <v>6820</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>122</v>
@@ -3837,10 +3993,10 @@
         <v>124</v>
       </c>
       <c r="M44" s="7">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="N44" s="7">
-        <v>174055</v>
+        <v>6820</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>122</v>
@@ -3871,48 +4027,345 @@
         <v>11</v>
       </c>
       <c r="H45" s="7">
+        <v>52</v>
+      </c>
+      <c r="I45" s="7">
+        <v>58605</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="7">
+        <v>52</v>
+      </c>
+      <c r="N45" s="7">
+        <v>58605</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="7">
+        <v>235</v>
+      </c>
+      <c r="I46" s="7">
+        <v>243533</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M46" s="7">
+        <v>235</v>
+      </c>
+      <c r="N46" s="7">
+        <v>243533</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="7">
+        <v>198</v>
+      </c>
+      <c r="I47" s="7">
+        <v>204651</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M47" s="7">
+        <v>198</v>
+      </c>
+      <c r="N47" s="7">
+        <v>204651</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="7">
+        <v>248</v>
+      </c>
+      <c r="I48" s="7">
+        <v>252904</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="7">
+        <v>248</v>
+      </c>
+      <c r="N48" s="7">
+        <v>252904</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="7">
+        <v>209</v>
+      </c>
+      <c r="I49" s="7">
+        <v>213973</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M49" s="7">
+        <v>209</v>
+      </c>
+      <c r="N49" s="7">
+        <v>213973</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="7">
+        <v>172</v>
+      </c>
+      <c r="I50" s="7">
+        <v>174055</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M50" s="7">
+        <v>172</v>
+      </c>
+      <c r="N50" s="7">
+        <v>174055</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="7">
         <v>1062</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>1089116</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="7">
         <v>1062</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>1089116</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>125</v>
+      <c r="O51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3925,8 +4378,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06842122-D009-45C8-BEC2-51BDD50F70B6}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1063431-562F-45A4-A170-0A87711A1A9B}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3942,7 +4395,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4062,13 +4515,13 @@
         <v>17697</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4077,13 +4530,13 @@
         <v>17697</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4564,13 @@
         <v>13446</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -4126,13 +4579,13 @@
         <v>13446</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4613,13 @@
         <v>74526</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M6" s="7">
         <v>71</v>
@@ -4175,13 +4628,13 @@
         <v>74526</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4662,13 @@
         <v>71907</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M7" s="7">
         <v>69</v>
@@ -4224,13 +4677,13 @@
         <v>71907</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4711,13 @@
         <v>72777</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>71</v>
@@ -4273,13 +4726,13 @@
         <v>72777</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,7 +4757,7 @@
         <v>242</v>
       </c>
       <c r="I9" s="7">
-        <v>250354</v>
+        <v>250353</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>31</v>
@@ -4319,7 +4772,7 @@
         <v>242</v>
       </c>
       <c r="N9" s="7">
-        <v>250354</v>
+        <v>250353</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>31</v>
@@ -4358,13 +4811,13 @@
         <v>62995</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -4373,13 +4826,13 @@
         <v>62995</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4860,13 @@
         <v>35138</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -4422,13 +4875,13 @@
         <v>35138</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4909,13 @@
         <v>179282</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M12" s="7">
         <v>170</v>
@@ -4471,13 +4924,13 @@
         <v>179282</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4958,13 @@
         <v>135092</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>125</v>
@@ -4520,13 +4973,13 @@
         <v>135092</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +5007,13 @@
         <v>143777</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -4569,13 +5022,13 @@
         <v>143777</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +5107,13 @@
         <v>76147</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -4669,13 +5122,13 @@
         <v>76147</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +5156,13 @@
         <v>88960</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -4718,13 +5171,13 @@
         <v>88960</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +5205,13 @@
         <v>229394</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M18" s="7">
         <v>218</v>
@@ -4767,13 +5220,13 @@
         <v>229394</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +5254,13 @@
         <v>168261</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="M19" s="7">
         <v>155</v>
@@ -4816,13 +5269,13 @@
         <v>168261</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +5303,13 @@
         <v>133244</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="M20" s="7">
         <v>124</v>
@@ -4865,13 +5318,13 @@
         <v>133244</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,13 +5403,13 @@
         <v>45480</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -4965,13 +5418,13 @@
         <v>45480</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +5452,13 @@
         <v>102902</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="M23" s="7">
         <v>90</v>
@@ -5014,13 +5467,13 @@
         <v>102902</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5501,13 @@
         <v>208561</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="M24" s="7">
         <v>178</v>
@@ -5063,13 +5516,13 @@
         <v>208561</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5550,13 @@
         <v>152530</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M25" s="7">
         <v>134</v>
@@ -5112,13 +5565,13 @@
         <v>152530</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5599,13 @@
         <v>74520</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M26" s="7">
         <v>67</v>
@@ -5161,13 +5614,13 @@
         <v>74520</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,13 +5699,13 @@
         <v>27202</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -5261,13 +5714,13 @@
         <v>27202</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5748,13 @@
         <v>128707</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>118</v>
@@ -5310,13 +5763,13 @@
         <v>128707</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5797,13 @@
         <v>134487</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="M30" s="7">
         <v>121</v>
@@ -5359,13 +5812,13 @@
         <v>134487</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5846,13 @@
         <v>85101</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>77</v>
@@ -5408,13 +5861,13 @@
         <v>85101</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5895,13 @@
         <v>44846</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="M32" s="7">
         <v>39</v>
@@ -5457,13 +5910,13 @@
         <v>44846</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>100</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,34 +5989,34 @@
         <v>11</v>
       </c>
       <c r="H34" s="7">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="I34" s="7">
-        <v>100677</v>
+        <v>37318</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="M34" s="7">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="N34" s="7">
-        <v>100677</v>
+        <v>37318</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,34 +6038,34 @@
         <v>11</v>
       </c>
       <c r="H35" s="7">
-        <v>288</v>
+        <v>132</v>
       </c>
       <c r="I35" s="7">
-        <v>306926</v>
+        <v>133870</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="M35" s="7">
-        <v>288</v>
+        <v>132</v>
       </c>
       <c r="N35" s="7">
-        <v>306926</v>
+        <v>133870</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,34 +6087,34 @@
         <v>11</v>
       </c>
       <c r="H36" s="7">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="I36" s="7">
-        <v>87694</v>
+        <v>63886</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="M36" s="7">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="N36" s="7">
-        <v>87694</v>
+        <v>63886</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,34 +6136,34 @@
         <v>11</v>
       </c>
       <c r="H37" s="7">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I37" s="7">
-        <v>45215</v>
+        <v>34840</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="M37" s="7">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N37" s="7">
-        <v>45215</v>
+        <v>34840</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,34 +6185,34 @@
         <v>11</v>
       </c>
       <c r="H38" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I38" s="7">
-        <v>34668</v>
+        <v>25907</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="M38" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N38" s="7">
-        <v>34668</v>
+        <v>25907</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,10 +6234,10 @@
         <v>11</v>
       </c>
       <c r="H39" s="7">
-        <v>540</v>
+        <v>287</v>
       </c>
       <c r="I39" s="7">
-        <v>575180</v>
+        <v>295821</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>31</v>
@@ -5796,10 +6249,10 @@
         <v>31</v>
       </c>
       <c r="M39" s="7">
-        <v>540</v>
+        <v>287</v>
       </c>
       <c r="N39" s="7">
-        <v>575180</v>
+        <v>295821</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>31</v>
@@ -5813,7 +6266,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -5832,34 +6285,34 @@
         <v>11</v>
       </c>
       <c r="H40" s="7">
-        <v>311</v>
+        <v>58</v>
       </c>
       <c r="I40" s="7">
-        <v>330198</v>
+        <v>63359</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="M40" s="7">
-        <v>311</v>
+        <v>58</v>
       </c>
       <c r="N40" s="7">
-        <v>330198</v>
+        <v>63359</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,34 +6334,34 @@
         <v>11</v>
       </c>
       <c r="H41" s="7">
-        <v>626</v>
+        <v>156</v>
       </c>
       <c r="I41" s="7">
-        <v>676078</v>
+        <v>173056</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="M41" s="7">
-        <v>626</v>
+        <v>156</v>
       </c>
       <c r="N41" s="7">
-        <v>676078</v>
+        <v>173056</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,34 +6383,34 @@
         <v>11</v>
       </c>
       <c r="H42" s="7">
-        <v>842</v>
+        <v>22</v>
       </c>
       <c r="I42" s="7">
-        <v>913943</v>
+        <v>23808</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="M42" s="7">
-        <v>842</v>
+        <v>22</v>
       </c>
       <c r="N42" s="7">
-        <v>913943</v>
+        <v>23808</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,34 +6432,34 @@
         <v>11</v>
       </c>
       <c r="H43" s="7">
-        <v>603</v>
+        <v>9</v>
       </c>
       <c r="I43" s="7">
-        <v>658107</v>
+        <v>10375</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="M43" s="7">
-        <v>603</v>
+        <v>9</v>
       </c>
       <c r="N43" s="7">
-        <v>658107</v>
+        <v>10375</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,34 +6481,34 @@
         <v>11</v>
       </c>
       <c r="H44" s="7">
-        <v>464</v>
+        <v>8</v>
       </c>
       <c r="I44" s="7">
-        <v>503832</v>
+        <v>8761</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="M44" s="7">
-        <v>464</v>
+        <v>8</v>
       </c>
       <c r="N44" s="7">
-        <v>503832</v>
+        <v>8761</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,48 +6530,345 @@
         <v>11</v>
       </c>
       <c r="H45" s="7">
+        <v>253</v>
+      </c>
+      <c r="I45" s="7">
+        <v>279359</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="7">
+        <v>253</v>
+      </c>
+      <c r="N45" s="7">
+        <v>279359</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="7">
+        <v>311</v>
+      </c>
+      <c r="I46" s="7">
+        <v>330198</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M46" s="7">
+        <v>311</v>
+      </c>
+      <c r="N46" s="7">
+        <v>330198</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="7">
+        <v>626</v>
+      </c>
+      <c r="I47" s="7">
+        <v>676078</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M47" s="7">
+        <v>626</v>
+      </c>
+      <c r="N47" s="7">
+        <v>676078</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="7">
+        <v>842</v>
+      </c>
+      <c r="I48" s="7">
+        <v>913943</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M48" s="7">
+        <v>842</v>
+      </c>
+      <c r="N48" s="7">
+        <v>913943</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="7">
+        <v>603</v>
+      </c>
+      <c r="I49" s="7">
+        <v>658107</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M49" s="7">
+        <v>603</v>
+      </c>
+      <c r="N49" s="7">
+        <v>658107</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="7">
+        <v>464</v>
+      </c>
+      <c r="I50" s="7">
+        <v>503832</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M50" s="7">
+        <v>464</v>
+      </c>
+      <c r="N50" s="7">
+        <v>503832</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="7">
         <v>2846</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3082158</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="7">
         <v>2846</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>3082158</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>125</v>
+      <c r="O51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6131,8 +6881,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A51B2A-B8FE-4564-985C-F979DECEBE9F}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850768A8-27BF-4213-9C6C-4C5FE6E799C5}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6148,7 +6898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6268,13 +7018,13 @@
         <v>11871</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -6283,13 +7033,13 @@
         <v>11871</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,13 +7067,13 @@
         <v>12958</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -6332,13 +7082,13 @@
         <v>12958</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +7116,13 @@
         <v>88653</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="M6" s="7">
         <v>89</v>
@@ -6381,13 +7131,13 @@
         <v>88653</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6415,13 +7165,13 @@
         <v>62544</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -6430,13 +7180,13 @@
         <v>62544</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>58</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6464,13 +7214,13 @@
         <v>57135</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -6479,13 +7229,13 @@
         <v>57135</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,13 +7314,13 @@
         <v>31822</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -6579,13 +7329,13 @@
         <v>31822</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,13 +7363,13 @@
         <v>48189</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -6628,13 +7378,13 @@
         <v>48189</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6662,13 +7412,13 @@
         <v>202203</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="M12" s="7">
         <v>209</v>
@@ -6677,13 +7427,13 @@
         <v>202203</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,13 +7461,13 @@
         <v>128539</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="M13" s="7">
         <v>132</v>
@@ -6726,13 +7476,13 @@
         <v>128539</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +7510,13 @@
         <v>87433</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
@@ -6775,13 +7525,13 @@
         <v>87433</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6860,13 +7610,13 @@
         <v>29307</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -6875,13 +7625,13 @@
         <v>29307</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6909,13 +7659,13 @@
         <v>85739</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -6924,13 +7674,13 @@
         <v>85739</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6958,13 +7708,13 @@
         <v>254374</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="M18" s="7">
         <v>260</v>
@@ -6973,13 +7723,13 @@
         <v>254374</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7007,13 +7757,13 @@
         <v>134913</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="M19" s="7">
         <v>137</v>
@@ -7022,13 +7772,13 @@
         <v>134913</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,13 +7806,13 @@
         <v>116486</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -7071,13 +7821,13 @@
         <v>116486</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7156,13 +7906,13 @@
         <v>33859</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -7171,13 +7921,13 @@
         <v>33859</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7205,13 +7955,13 @@
         <v>124873</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="M23" s="7">
         <v>117</v>
@@ -7220,13 +7970,13 @@
         <v>124873</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,13 +8004,13 @@
         <v>262649</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="M24" s="7">
         <v>243</v>
@@ -7269,13 +8019,13 @@
         <v>262649</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,13 +8053,13 @@
         <v>123328</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>113</v>
@@ -7318,13 +8068,13 @@
         <v>123328</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,13 +8102,13 @@
         <v>67561</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="M26" s="7">
         <v>63</v>
@@ -7367,13 +8117,13 @@
         <v>67561</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7452,13 +8202,13 @@
         <v>24587</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="M28" s="7">
         <v>21</v>
@@ -7467,13 +8217,13 @@
         <v>24587</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +8251,13 @@
         <v>143026</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="M29" s="7">
         <v>126</v>
@@ -7516,13 +8266,13 @@
         <v>143026</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7550,13 +8300,13 @@
         <v>178367</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="M30" s="7">
         <v>154</v>
@@ -7565,13 +8315,13 @@
         <v>178367</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7602,10 +8352,10 @@
         <v>21</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="M31" s="7">
         <v>64</v>
@@ -7617,10 +8367,10 @@
         <v>21</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7648,13 +8398,13 @@
         <v>41725</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="M32" s="7">
         <v>36</v>
@@ -7663,13 +8413,13 @@
         <v>41725</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,34 +8492,34 @@
         <v>11</v>
       </c>
       <c r="H34" s="7">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="I34" s="7">
-        <v>120455</v>
+        <v>43654</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="M34" s="7">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="N34" s="7">
-        <v>120455</v>
+        <v>43654</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,34 +8541,34 @@
         <v>11</v>
       </c>
       <c r="H35" s="7">
-        <v>277</v>
+        <v>145</v>
       </c>
       <c r="I35" s="7">
-        <v>330702</v>
+        <v>154153</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="M35" s="7">
-        <v>277</v>
+        <v>145</v>
       </c>
       <c r="N35" s="7">
-        <v>330702</v>
+        <v>154153</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,34 +8590,34 @@
         <v>11</v>
       </c>
       <c r="H36" s="7">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="I36" s="7">
-        <v>120445</v>
+        <v>85978</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="M36" s="7">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="N36" s="7">
-        <v>120445</v>
+        <v>85978</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7889,34 +8639,34 @@
         <v>11</v>
       </c>
       <c r="H37" s="7">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I37" s="7">
-        <v>40667</v>
+        <v>27475</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="M37" s="7">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N37" s="7">
-        <v>40667</v>
+        <v>27475</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7938,34 +8688,34 @@
         <v>11</v>
       </c>
       <c r="H38" s="7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I38" s="7">
-        <v>23442</v>
+        <v>17517</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="M38" s="7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N38" s="7">
-        <v>23442</v>
+        <v>17517</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,10 +8737,10 @@
         <v>11</v>
       </c>
       <c r="H39" s="7">
-        <v>538</v>
+        <v>309</v>
       </c>
       <c r="I39" s="7">
-        <v>635711</v>
+        <v>328777</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>31</v>
@@ -8002,10 +8752,10 @@
         <v>31</v>
       </c>
       <c r="M39" s="7">
-        <v>538</v>
+        <v>309</v>
       </c>
       <c r="N39" s="7">
-        <v>635711</v>
+        <v>328777</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>31</v>
@@ -8019,7 +8769,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -8038,34 +8788,34 @@
         <v>11</v>
       </c>
       <c r="H40" s="7">
-        <v>225</v>
+        <v>57</v>
       </c>
       <c r="I40" s="7">
-        <v>251902</v>
+        <v>76802</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>312</v>
+        <v>127</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="M40" s="7">
-        <v>225</v>
+        <v>57</v>
       </c>
       <c r="N40" s="7">
-        <v>251902</v>
+        <v>76802</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>312</v>
+        <v>127</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8087,34 +8837,34 @@
         <v>11</v>
       </c>
       <c r="H41" s="7">
-        <v>669</v>
+        <v>132</v>
       </c>
       <c r="I41" s="7">
-        <v>745486</v>
+        <v>176549</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="M41" s="7">
-        <v>669</v>
+        <v>132</v>
       </c>
       <c r="N41" s="7">
-        <v>745486</v>
+        <v>176549</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,34 +8886,34 @@
         <v>11</v>
       </c>
       <c r="H42" s="7">
-        <v>1061</v>
+        <v>26</v>
       </c>
       <c r="I42" s="7">
-        <v>1106691</v>
+        <v>34467</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="M42" s="7">
-        <v>1061</v>
+        <v>26</v>
       </c>
       <c r="N42" s="7">
-        <v>1106691</v>
+        <v>34467</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8185,34 +8935,34 @@
         <v>11</v>
       </c>
       <c r="H43" s="7">
-        <v>545</v>
+        <v>9</v>
       </c>
       <c r="I43" s="7">
-        <v>563675</v>
+        <v>13192</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="M43" s="7">
-        <v>545</v>
+        <v>9</v>
       </c>
       <c r="N43" s="7">
-        <v>563675</v>
+        <v>13192</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,34 +8984,34 @@
         <v>11</v>
       </c>
       <c r="H44" s="7">
-        <v>377</v>
+        <v>5</v>
       </c>
       <c r="I44" s="7">
-        <v>393781</v>
+        <v>5925</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>69</v>
+        <v>350</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>253</v>
+        <v>352</v>
       </c>
       <c r="M44" s="7">
-        <v>377</v>
+        <v>5</v>
       </c>
       <c r="N44" s="7">
-        <v>393781</v>
+        <v>5925</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>69</v>
+        <v>350</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>253</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8283,48 +9033,345 @@
         <v>11</v>
       </c>
       <c r="H45" s="7">
+        <v>229</v>
+      </c>
+      <c r="I45" s="7">
+        <v>306934</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="7">
+        <v>229</v>
+      </c>
+      <c r="N45" s="7">
+        <v>306934</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="7">
+        <v>225</v>
+      </c>
+      <c r="I46" s="7">
+        <v>251902</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="M46" s="7">
+        <v>225</v>
+      </c>
+      <c r="N46" s="7">
+        <v>251902</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="7">
+        <v>669</v>
+      </c>
+      <c r="I47" s="7">
+        <v>745487</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="M47" s="7">
+        <v>669</v>
+      </c>
+      <c r="N47" s="7">
+        <v>745487</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1061</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1106692</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1061</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1106692</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="7">
+        <v>545</v>
+      </c>
+      <c r="I49" s="7">
+        <v>563676</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M49" s="7">
+        <v>545</v>
+      </c>
+      <c r="N49" s="7">
+        <v>563676</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="7">
+        <v>377</v>
+      </c>
+      <c r="I50" s="7">
+        <v>393782</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M50" s="7">
+        <v>377</v>
+      </c>
+      <c r="N50" s="7">
+        <v>393782</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="7">
         <v>2877</v>
       </c>
-      <c r="I45" s="7">
-        <v>3061536</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>3061537</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="7">
         <v>2877</v>
       </c>
-      <c r="N45" s="7">
-        <v>3061536</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>125</v>
+      <c r="N51" s="7">
+        <v>3061537</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -8337,8 +9384,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB569BD9-3E54-4455-90DF-52E703A380B7}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E92CEB8-0789-4C22-B892-534DF1F4A108}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -8354,7 +9401,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8471,31 +9518,31 @@
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>7647</v>
+        <v>6914</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>7647</v>
+        <v>6914</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8520,31 +9567,31 @@
         <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>12861</v>
+        <v>11355</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>329</v>
+        <v>105</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>12861</v>
+        <v>11355</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8569,31 +9616,31 @@
         <v>19</v>
       </c>
       <c r="I6" s="7">
-        <v>32326</v>
+        <v>29232</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>32326</v>
+        <v>29232</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8618,31 +9665,31 @@
         <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>29516</v>
+        <v>26613</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>101</v>
+        <v>375</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>29516</v>
+        <v>26613</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>101</v>
+        <v>375</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8667,31 +9714,31 @@
         <v>15</v>
       </c>
       <c r="I8" s="7">
-        <v>28872</v>
+        <v>25429</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>56</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>28872</v>
+        <v>25429</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8716,7 +9763,7 @@
         <v>66</v>
       </c>
       <c r="I9" s="7">
-        <v>111222</v>
+        <v>99543</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>31</v>
@@ -8731,7 +9778,7 @@
         <v>66</v>
       </c>
       <c r="N9" s="7">
-        <v>111222</v>
+        <v>99543</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>31</v>
@@ -8767,31 +9814,31 @@
         <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>41158</v>
+        <v>36760</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>342</v>
+        <v>103</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>41158</v>
+        <v>36760</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>342</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8816,31 +9863,31 @@
         <v>32</v>
       </c>
       <c r="I11" s="7">
-        <v>50025</v>
+        <v>101864</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
       </c>
       <c r="N11" s="7">
-        <v>50025</v>
+        <v>101864</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8865,31 +9912,31 @@
         <v>92</v>
       </c>
       <c r="I12" s="7">
-        <v>96879</v>
+        <v>89633</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="M12" s="7">
         <v>92</v>
       </c>
       <c r="N12" s="7">
-        <v>96879</v>
+        <v>89633</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8914,31 +9961,31 @@
         <v>47</v>
       </c>
       <c r="I13" s="7">
-        <v>47410</v>
+        <v>43484</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
       </c>
       <c r="N13" s="7">
-        <v>47410</v>
+        <v>43484</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>351</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8963,31 +10010,31 @@
         <v>50</v>
       </c>
       <c r="I14" s="7">
-        <v>55485</v>
+        <v>52339</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>50</v>
       </c>
       <c r="N14" s="7">
-        <v>55485</v>
+        <v>52339</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9012,7 +10059,7 @@
         <v>263</v>
       </c>
       <c r="I15" s="7">
-        <v>290956</v>
+        <v>324080</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>31</v>
@@ -9027,7 +10074,7 @@
         <v>263</v>
       </c>
       <c r="N15" s="7">
-        <v>290956</v>
+        <v>324080</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>31</v>
@@ -9063,31 +10110,31 @@
         <v>48</v>
       </c>
       <c r="I16" s="7">
-        <v>32581</v>
+        <v>29553</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
       </c>
       <c r="N16" s="7">
-        <v>32581</v>
+        <v>29553</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9112,31 +10159,31 @@
         <v>102</v>
       </c>
       <c r="I17" s="7">
-        <v>73811</v>
+        <v>69569</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
       </c>
       <c r="N17" s="7">
-        <v>73811</v>
+        <v>69569</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9161,31 +10208,31 @@
         <v>173</v>
       </c>
       <c r="I18" s="7">
-        <v>117429</v>
+        <v>109074</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="M18" s="7">
         <v>173</v>
       </c>
       <c r="N18" s="7">
-        <v>117429</v>
+        <v>109074</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9210,31 +10257,31 @@
         <v>112</v>
       </c>
       <c r="I19" s="7">
-        <v>80415</v>
+        <v>72863</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="M19" s="7">
         <v>112</v>
       </c>
       <c r="N19" s="7">
-        <v>80415</v>
+        <v>72863</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9259,31 +10306,31 @@
         <v>85</v>
       </c>
       <c r="I20" s="7">
-        <v>57738</v>
+        <v>54606</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>56</v>
+        <v>404</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>406</v>
       </c>
       <c r="M20" s="7">
         <v>85</v>
       </c>
       <c r="N20" s="7">
-        <v>57738</v>
+        <v>54606</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>56</v>
+        <v>404</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9308,7 +10355,7 @@
         <v>520</v>
       </c>
       <c r="I21" s="7">
-        <v>361973</v>
+        <v>335665</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>31</v>
@@ -9323,7 +10370,7 @@
         <v>520</v>
       </c>
       <c r="N21" s="7">
-        <v>361973</v>
+        <v>335665</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>31</v>
@@ -9359,31 +10406,31 @@
         <v>49</v>
       </c>
       <c r="I22" s="7">
-        <v>32038</v>
+        <v>29242</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>368</v>
+        <v>160</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>369</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
       </c>
       <c r="N22" s="7">
-        <v>32038</v>
+        <v>29242</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>368</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>369</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9408,31 +10455,31 @@
         <v>153</v>
       </c>
       <c r="I23" s="7">
-        <v>106581</v>
+        <v>123616</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>370</v>
+        <v>106</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="M23" s="7">
         <v>153</v>
       </c>
       <c r="N23" s="7">
-        <v>106581</v>
+        <v>123616</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>370</v>
+        <v>106</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9457,31 +10504,31 @@
         <v>237</v>
       </c>
       <c r="I24" s="7">
-        <v>158922</v>
+        <v>143998</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="M24" s="7">
         <v>237</v>
       </c>
       <c r="N24" s="7">
-        <v>158922</v>
+        <v>143998</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9506,31 +10553,31 @@
         <v>192</v>
       </c>
       <c r="I25" s="7">
-        <v>128429</v>
+        <v>117637</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="M25" s="7">
         <v>192</v>
       </c>
       <c r="N25" s="7">
-        <v>128429</v>
+        <v>117637</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9555,31 +10602,31 @@
         <v>117</v>
       </c>
       <c r="I26" s="7">
-        <v>71445</v>
+        <v>67327</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="M26" s="7">
         <v>117</v>
       </c>
       <c r="N26" s="7">
-        <v>71445</v>
+        <v>67327</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9604,7 +10651,7 @@
         <v>748</v>
       </c>
       <c r="I27" s="7">
-        <v>497414</v>
+        <v>481820</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>31</v>
@@ -9619,7 +10666,7 @@
         <v>748</v>
       </c>
       <c r="N27" s="7">
-        <v>497414</v>
+        <v>481820</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>31</v>
@@ -9655,31 +10702,31 @@
         <v>26</v>
       </c>
       <c r="I28" s="7">
-        <v>17935</v>
+        <v>15781</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="M28" s="7">
         <v>26</v>
       </c>
       <c r="N28" s="7">
-        <v>17935</v>
+        <v>15781</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9704,31 +10751,31 @@
         <v>207</v>
       </c>
       <c r="I29" s="7">
-        <v>126111</v>
+        <v>116898</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="M29" s="7">
         <v>207</v>
       </c>
       <c r="N29" s="7">
-        <v>126111</v>
+        <v>116898</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9753,31 +10800,31 @@
         <v>213</v>
       </c>
       <c r="I30" s="7">
-        <v>121228</v>
+        <v>111445</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>216</v>
+        <v>425</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="M30" s="7">
         <v>213</v>
       </c>
       <c r="N30" s="7">
-        <v>121228</v>
+        <v>111445</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>216</v>
+        <v>425</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9802,31 +10849,31 @@
         <v>160</v>
       </c>
       <c r="I31" s="7">
-        <v>95879</v>
+        <v>86430</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="M31" s="7">
         <v>160</v>
       </c>
       <c r="N31" s="7">
-        <v>95879</v>
+        <v>86430</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9851,31 +10898,31 @@
         <v>80</v>
       </c>
       <c r="I32" s="7">
-        <v>47748</v>
+        <v>44230</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="M32" s="7">
         <v>80</v>
       </c>
       <c r="N32" s="7">
-        <v>47748</v>
+        <v>44230</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9900,7 +10947,7 @@
         <v>686</v>
       </c>
       <c r="I33" s="7">
-        <v>408901</v>
+        <v>374785</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>31</v>
@@ -9915,7 +10962,7 @@
         <v>686</v>
       </c>
       <c r="N33" s="7">
-        <v>408901</v>
+        <v>374785</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>31</v>
@@ -9948,34 +10995,34 @@
         <v>11</v>
       </c>
       <c r="H34" s="7">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="I34" s="7">
-        <v>81216</v>
+        <v>20532</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>397</v>
+        <v>435</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="M34" s="7">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="N34" s="7">
-        <v>81216</v>
+        <v>20532</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>397</v>
+        <v>435</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>398</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9997,34 +11044,34 @@
         <v>11</v>
       </c>
       <c r="H35" s="7">
-        <v>729</v>
+        <v>284</v>
       </c>
       <c r="I35" s="7">
-        <v>388603</v>
+        <v>138832</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="M35" s="7">
-        <v>729</v>
+        <v>284</v>
       </c>
       <c r="N35" s="7">
-        <v>388603</v>
+        <v>138832</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10046,34 +11093,34 @@
         <v>11</v>
       </c>
       <c r="H36" s="7">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="I36" s="7">
-        <v>106435</v>
+        <v>74755</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>169</v>
+        <v>440</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>340</v>
+        <v>441</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="M36" s="7">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="N36" s="7">
-        <v>106435</v>
+        <v>74755</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>169</v>
+        <v>440</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>340</v>
+        <v>441</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10095,34 +11142,34 @@
         <v>11</v>
       </c>
       <c r="H37" s="7">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="I37" s="7">
-        <v>58276</v>
+        <v>39576</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="M37" s="7">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="N37" s="7">
-        <v>58276</v>
+        <v>39576</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10144,34 +11191,34 @@
         <v>11</v>
       </c>
       <c r="H38" s="7">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I38" s="7">
-        <v>22180</v>
+        <v>18202</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>408</v>
+        <v>258</v>
       </c>
       <c r="M38" s="7">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N38" s="7">
-        <v>22180</v>
+        <v>18202</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>408</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10193,10 +11240,10 @@
         <v>11</v>
       </c>
       <c r="H39" s="7">
-        <v>1221</v>
+        <v>600</v>
       </c>
       <c r="I39" s="7">
-        <v>656710</v>
+        <v>291897</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>31</v>
@@ -10208,10 +11255,10 @@
         <v>31</v>
       </c>
       <c r="M39" s="7">
-        <v>1221</v>
+        <v>600</v>
       </c>
       <c r="N39" s="7">
-        <v>656710</v>
+        <v>291897</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>31</v>
@@ -10225,7 +11272,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -10244,34 +11291,34 @@
         <v>11</v>
       </c>
       <c r="H40" s="7">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="I40" s="7">
-        <v>212574</v>
+        <v>53512</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>409</v>
+        <v>448</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
       <c r="L40" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="M40" s="7">
         <v>109</v>
       </c>
-      <c r="M40" s="7">
-        <v>320</v>
-      </c>
       <c r="N40" s="7">
-        <v>212574</v>
+        <v>53512</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>409</v>
+        <v>448</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>109</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10293,34 +11340,34 @@
         <v>11</v>
       </c>
       <c r="H41" s="7">
-        <v>1231</v>
+        <v>445</v>
       </c>
       <c r="I41" s="7">
-        <v>757991</v>
+        <v>212668</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="M41" s="7">
-        <v>1231</v>
+        <v>445</v>
       </c>
       <c r="N41" s="7">
-        <v>757991</v>
+        <v>212668</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10342,34 +11389,34 @@
         <v>11</v>
       </c>
       <c r="H42" s="7">
-        <v>933</v>
+        <v>41</v>
       </c>
       <c r="I42" s="7">
-        <v>633219</v>
+        <v>21324</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>414</v>
+        <v>141</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>416</v>
+        <v>455</v>
       </c>
       <c r="M42" s="7">
-        <v>933</v>
+        <v>41</v>
       </c>
       <c r="N42" s="7">
-        <v>633219</v>
+        <v>21324</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>414</v>
+        <v>141</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>416</v>
+        <v>455</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10391,34 +11438,34 @@
         <v>11</v>
       </c>
       <c r="H43" s="7">
-        <v>631</v>
+        <v>21</v>
       </c>
       <c r="I43" s="7">
-        <v>439924</v>
+        <v>11766</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>419</v>
+        <v>458</v>
       </c>
       <c r="M43" s="7">
-        <v>631</v>
+        <v>21</v>
       </c>
       <c r="N43" s="7">
-        <v>439924</v>
+        <v>11766</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>419</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10440,34 +11487,34 @@
         <v>11</v>
       </c>
       <c r="H44" s="7">
-        <v>389</v>
+        <v>5</v>
       </c>
       <c r="I44" s="7">
-        <v>283468</v>
+        <v>2222</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="M44" s="7">
-        <v>389</v>
+        <v>5</v>
       </c>
       <c r="N44" s="7">
-        <v>283468</v>
+        <v>2222</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10489,48 +11536,345 @@
         <v>11</v>
       </c>
       <c r="H45" s="7">
+        <v>621</v>
+      </c>
+      <c r="I45" s="7">
+        <v>301493</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="7">
+        <v>621</v>
+      </c>
+      <c r="N45" s="7">
+        <v>301493</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="7">
+        <v>320</v>
+      </c>
+      <c r="I46" s="7">
+        <v>192294</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="M46" s="7">
+        <v>320</v>
+      </c>
+      <c r="N46" s="7">
+        <v>192294</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="7">
+        <v>1231</v>
+      </c>
+      <c r="I47" s="7">
+        <v>774802</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="M47" s="7">
+        <v>1231</v>
+      </c>
+      <c r="N47" s="7">
+        <v>774802</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="7">
+        <v>933</v>
+      </c>
+      <c r="I48" s="7">
+        <v>579463</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="M48" s="7">
+        <v>933</v>
+      </c>
+      <c r="N48" s="7">
+        <v>579463</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="7">
+        <v>631</v>
+      </c>
+      <c r="I49" s="7">
+        <v>398370</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="M49" s="7">
+        <v>631</v>
+      </c>
+      <c r="N49" s="7">
+        <v>398370</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="7">
+        <v>389</v>
+      </c>
+      <c r="I50" s="7">
+        <v>264354</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M50" s="7">
+        <v>389</v>
+      </c>
+      <c r="N50" s="7">
+        <v>264354</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="7">
         <v>3504</v>
       </c>
-      <c r="I45" s="7">
-        <v>2327176</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>2209283</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="7">
         <v>3504</v>
       </c>
-      <c r="N45" s="7">
-        <v>2327176</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>125</v>
+      <c r="N51" s="7">
+        <v>2209283</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
